--- a/files/order tracking.xlsx
+++ b/files/order tracking.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects_personal\Python Projects\order_tracker\program\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8FF8A3-9805-4FA4-B2A9-72864DA59585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ORDERS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ORDERS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,72 +35,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">CURRENT STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS HISTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TICKET #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PART DECRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PART #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDER #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAY METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordered 3/20/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received 1/14/2022; ordered 1/2/2022;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202112221 amarante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tv parts today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+  <si>
+    <t>CURRENT STATUS</t>
+  </si>
+  <si>
+    <t>STATUS HISTORY</t>
+  </si>
+  <si>
+    <t>TICKET #</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>PART DECRIPTION</t>
+  </si>
+  <si>
+    <t>PART #</t>
+  </si>
+  <si>
+    <t>ORDER #</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>PAY METHOD</t>
+  </si>
+  <si>
+    <t>ordered 3/20/2022</t>
+  </si>
+  <si>
+    <t>received 1/14/2022; ordered 1/2/2022;</t>
+  </si>
+  <si>
+    <t>202112221 amarante</t>
+  </si>
+  <si>
+    <t>tv parts today</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
   <si>
     <t xml:space="preserve"> 3722-003322</t>
   </si>
   <si>
-    <t xml:space="preserve">179037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc8630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordered 2/12/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received 3/23/2022; ordered 3/18/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202203221 voss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encompass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scoket</t>
+    <t>179037</t>
+  </si>
+  <si>
+    <t>cc8630</t>
+  </si>
+  <si>
+    <t>ordered 2/12/2022</t>
+  </si>
+  <si>
+    <t>received 3/23/2022; ordered 3/18/2022</t>
+  </si>
+  <si>
+    <t>202203221 voss</t>
+  </si>
+  <si>
+    <t>encompass</t>
+  </si>
+  <si>
+    <t>scoket</t>
   </si>
   <si>
     <t xml:space="preserve"> BN94-10752B</t>
@@ -94,164 +109,168 @@
     <t xml:space="preserve"> 22338764</t>
   </si>
   <si>
-    <t xml:space="preserve">paypal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received 3/23/2022</t>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>received 3/23/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> ordered 3/18/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">202203222 lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBT62885605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PON211229824044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202203231 carter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reliable parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJK72989701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-08264-97922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202203221 damle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct tv parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suspension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bn44-00934a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-08304-91518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amex1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordered 1/15/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN220223097759 heredia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN94-16669V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6M03M0003220R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordered 4/12/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">572-8520-6564-12 panjwani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samsung main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2072555C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PON220223986718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received 12/14/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202202151 uyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBR78898206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PON211217798605</t>
+    <t>202203222 lopez</t>
+  </si>
+  <si>
+    <t>EBT62885605</t>
+  </si>
+  <si>
+    <t>PON211229824044</t>
+  </si>
+  <si>
+    <t>202203231 carter</t>
+  </si>
+  <si>
+    <t>reliable parts</t>
+  </si>
+  <si>
+    <t>AJK72989701</t>
+  </si>
+  <si>
+    <t>01-08264-97922</t>
+  </si>
+  <si>
+    <t>202203221 damle</t>
+  </si>
+  <si>
+    <t>direct tv parts</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>bn44-00934a</t>
+  </si>
+  <si>
+    <t>14-08304-91518</t>
+  </si>
+  <si>
+    <t>amex1000</t>
+  </si>
+  <si>
+    <t>ordered 1/15/2022</t>
+  </si>
+  <si>
+    <t>RNN220223097759 heredia</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>smps</t>
+  </si>
+  <si>
+    <t>BN94-16669V</t>
+  </si>
+  <si>
+    <t>6M03M0003220R</t>
+  </si>
+  <si>
+    <t>ordered 4/12/2022</t>
+  </si>
+  <si>
+    <t>572-8520-6564-12 panjwani</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>samsung main</t>
+  </si>
+  <si>
+    <t>A2072555C</t>
+  </si>
+  <si>
+    <t>PON220223986718</t>
+  </si>
+  <si>
+    <t>received 12/14/2021</t>
+  </si>
+  <si>
+    <t>202202151 uyi</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>EBR78898206</t>
+  </si>
+  <si>
+    <t>PON211217798605</t>
   </si>
   <si>
     <t xml:space="preserve"> ordered 4-4-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">got_paid 1/29/2022; received 1-27-2022; ordered 1/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202201283 kwame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lowes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBR79686303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-40647</t>
+    <t>got_paid 1/29/2022; received 1-27-2022; ordered 1/10/2022</t>
+  </si>
+  <si>
+    <t>202201283 kwame</t>
+  </si>
+  <si>
+    <t>lowes</t>
+  </si>
+  <si>
+    <t>EBR79686303</t>
+  </si>
+  <si>
+    <t>1-40647</t>
   </si>
   <si>
     <t xml:space="preserve">received 3/23/2022; ordered 3/18/2022; received 3/15/2022; ordered 3/10/2022 </t>
   </si>
   <si>
-    <t xml:space="preserve">202202041 stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tvpt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agm76429511</t>
+    <t>202202041 stewart</t>
+  </si>
+  <si>
+    <t>tvpt</t>
+  </si>
+  <si>
+    <t>agm76429511</t>
   </si>
   <si>
     <t xml:space="preserve"> 07-08157-39312</t>
   </si>
   <si>
-    <t xml:space="preserve">s202202101 young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirct tv parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eam60991316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1085102</t>
+    <t>s202202101 young</t>
+  </si>
+  <si>
+    <t>dirct tv parts</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>eam60991316</t>
+  </si>
+  <si>
+    <t>1085102</t>
+  </si>
+  <si>
+    <t>jfdskla</t>
+  </si>
+  <si>
+    <t>$# 4324</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -260,22 +279,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -289,6 +293,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +310,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -307,87 +318,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -446,34 +403,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.57"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,20 +767,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -524,27 +789,27 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -553,27 +818,27 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="8">
         <v>134.46</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -582,24 +847,24 @@
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="8">
         <v>72.81</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -608,24 +873,24 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="8">
         <v>1546.69</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -634,24 +899,24 @@
       <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="8">
         <v>173.31</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -660,24 +925,24 @@
       <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="8">
         <v>173.31</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -686,21 +951,24 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="8">
         <v>325.19</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -712,18 +980,18 @@
       <c r="G9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="8">
         <v>123.46</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -732,7 +1000,7 @@
       <c r="D10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -741,27 +1009,27 @@
       <c r="G10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="8">
         <v>30.25</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -770,24 +1038,27 @@
       <c r="G11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="8">
         <v>114.85</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -796,40 +1067,35 @@
       <c r="G12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="8" t="n">
-        <f aca="false">104.93+8.95+8.95</f>
-        <v>122.83</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="8">
+        <f>104.93+8.95+8.95</f>
+        <v>122.83000000000001</v>
+      </c>
+      <c r="I12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="7"/>
       <c r="G13" s="1"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/files/order tracking.xlsx
+++ b/files/order tracking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t xml:space="preserve">CURRENT STATUS</t>
   </si>
@@ -112,6 +112,9 @@
     <t xml:space="preserve">PON211229824044</t>
   </si>
   <si>
+    <t xml:space="preserve">return_requested 3/20/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">202203231 carter</t>
   </si>
   <si>
@@ -145,7 +148,7 @@
     <t xml:space="preserve">amex1000</t>
   </si>
   <si>
-    <t xml:space="preserve">ordered 1/15/2022</t>
+    <t xml:space="preserve">reordered 1/15/2022</t>
   </si>
   <si>
     <t xml:space="preserve">RNN220223097759 heredia</t>
@@ -468,10 +471,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.15"/>
@@ -600,22 +603,22 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="8" t="n">
         <v>1546.69</v>
@@ -626,74 +629,74 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8" t="n">
         <v>173.31</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>173.31</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="8" t="n">
         <v>325.19</v>
@@ -704,25 +707,25 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="8" t="n">
         <v>123.46</v>
@@ -733,25 +736,25 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>30.25</v>
@@ -765,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="8" t="n">
         <v>114.85</v>
@@ -791,32 +794,32 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="8" t="n">
         <f aca="false">104.93+8.95+8.95</f>
         <v>122.83</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
